--- a/capiq_data/in_process_data/IQ247589.xlsx
+++ b/capiq_data/in_process_data/IQ247589.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D412582-E433-4AC8-A317-61CB74FDC2F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D7FB30-5D74-4426-8A0F-7D84807719B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"88eeeb25-d0ba-40f4-9da9-8fc77422e4c2"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"74e86e36-752d-4f1a-88ae-15c9cfafda6b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
   </si>
   <si>
     <t>FQ32011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-0.80200000000000005</v>
+        <v>-3.7549999999999999</v>
       </c>
       <c r="D2">
-        <v>27.244</v>
+        <v>5.9489999999999998</v>
       </c>
       <c r="E2">
-        <v>12.872</v>
+        <v>8.4610000000000003</v>
       </c>
       <c r="F2">
-        <v>21.806999999999999</v>
+        <v>3.8570000000000002</v>
       </c>
       <c r="G2">
-        <v>79.804000000000002</v>
+        <v>109.581</v>
       </c>
       <c r="H2">
-        <v>124.36199999999999</v>
+        <v>120.63200000000001</v>
       </c>
       <c r="I2">
-        <v>3.556</v>
+        <v>1.66</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.434</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.899999999999999</v>
+        <v>7.8780000000000001</v>
       </c>
       <c r="O2">
-        <v>23.183</v>
+        <v>8.3119999999999994</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="Q2">
-        <v>4.2000000000000003E-2</v>
+        <v>-3.7530000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>101.179</v>
+        <v>112.32</v>
       </c>
       <c r="U2">
-        <v>4.1929999999999996</v>
+        <v>87.233999999999995</v>
       </c>
       <c r="V2">
-        <v>5.8630000000000004</v>
+        <v>-2.3889999999999998</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>7.2999999999999995E-2</v>
+        <v>-0.105</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-5.0010000000000003</v>
+        <v>-0.62</v>
       </c>
       <c r="AA2">
-        <v>-0.80200000000000005</v>
+        <v>-3.754</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-1.772</v>
+        <v>-12.112</v>
       </c>
       <c r="D3">
-        <v>28.529</v>
+        <v>4.0739999999999998</v>
       </c>
       <c r="E3">
-        <v>15.375999999999999</v>
+        <v>8.6219999999999999</v>
       </c>
       <c r="F3">
-        <v>21.739000000000001</v>
+        <v>1.992</v>
       </c>
       <c r="G3">
-        <v>84.736999999999995</v>
+        <v>105.43</v>
       </c>
       <c r="H3">
-        <v>131.58799999999999</v>
+        <v>110.961</v>
       </c>
       <c r="I3">
-        <v>6.2830000000000004</v>
+        <v>2.129</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.343</v>
+        <v>10.779</v>
       </c>
       <c r="O3">
-        <v>26.844999999999999</v>
+        <v>11.147</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="Q3">
-        <v>1.6379999999999999</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c r="T3">
-        <v>104.74299999999999</v>
+        <v>99.813999999999993</v>
       </c>
       <c r="U3">
-        <v>5.8310000000000004</v>
+        <v>90.462000000000003</v>
       </c>
       <c r="V3">
-        <v>0.14599999999999999</v>
+        <v>-3.6709999999999998</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.80500000000000005</v>
+        <v>0.48</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="Z3">
-        <v>0.499</v>
+        <v>6.7009999999999996</v>
       </c>
       <c r="AA3">
-        <v>-1.772</v>
+        <v>-12.112</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-4.5940000000000003</v>
+        <v>-5.125</v>
       </c>
       <c r="D4">
-        <v>27.355</v>
+        <v>6.6820000000000004</v>
       </c>
       <c r="E4">
-        <v>14.541</v>
+        <v>8.0009999999999994</v>
       </c>
       <c r="F4">
-        <v>21.463999999999999</v>
+        <v>4.4409999999999998</v>
       </c>
       <c r="G4">
-        <v>83.891999999999996</v>
+        <v>101.13</v>
       </c>
       <c r="H4">
-        <v>131.137</v>
+        <v>111.571</v>
       </c>
       <c r="I4">
-        <v>4.9640000000000004</v>
+        <v>2.2360000000000002</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -935,81 +1055,81 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-0.435</v>
       </c>
       <c r="N4">
-        <v>15.379</v>
+        <v>8.875</v>
       </c>
       <c r="O4">
-        <v>19.954000000000001</v>
+        <v>8.9659999999999993</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="Q4">
-        <v>-1.68</v>
+        <v>-30.175000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>111.18300000000001</v>
+        <v>102.605</v>
       </c>
       <c r="U4">
-        <v>4.1509999999999998</v>
+        <v>60.286999999999999</v>
       </c>
       <c r="V4">
-        <v>-8.5559999999999992</v>
+        <v>-3.7189999999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>7.6289999999999996</v>
+        <v>-0.20699999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-0.501</v>
+        <v>-25.768999999999998</v>
       </c>
       <c r="AA4">
-        <v>-4.5940000000000003</v>
+        <v>-5.125</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.60099999999999998</v>
+        <v>-5.6159999999999997</v>
       </c>
       <c r="D5">
-        <v>29.478000000000002</v>
+        <v>5.5940000000000003</v>
       </c>
       <c r="E5">
-        <v>15.49</v>
+        <v>5.6950000000000003</v>
       </c>
       <c r="F5">
-        <v>23.927</v>
+        <v>4.0270000000000001</v>
       </c>
       <c r="G5">
-        <v>86.927999999999997</v>
+        <v>94.864999999999995</v>
       </c>
       <c r="H5">
-        <v>131.61000000000001</v>
+        <v>104.80500000000001</v>
       </c>
       <c r="I5">
-        <v>4.4569999999999999</v>
+        <v>2.0339999999999998</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.433999999999999</v>
+        <v>8.7119999999999997</v>
       </c>
       <c r="O5">
-        <v>20.210999999999999</v>
+        <v>8.7680000000000007</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="Q5">
-        <v>1.1870000000000001</v>
+        <v>-8.6809999999999992</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>111.399</v>
+        <v>96.037000000000006</v>
       </c>
       <c r="U5">
-        <v>5.3380000000000001</v>
+        <v>51.606000000000002</v>
       </c>
       <c r="V5">
-        <v>2.266</v>
+        <v>-4.2789999999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.36799999999999999</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-4.3390000000000004</v>
       </c>
       <c r="AA5">
-        <v>0.60099999999999998</v>
+        <v>-5.6159999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>2.9209999999999998</v>
+        <v>-5.32</v>
       </c>
       <c r="D6">
-        <v>32.198</v>
+        <v>6.5890000000000004</v>
       </c>
       <c r="E6">
-        <v>17.303000000000001</v>
+        <v>5.5519999999999996</v>
       </c>
       <c r="F6">
-        <v>25.919</v>
+        <v>4.9349999999999996</v>
       </c>
       <c r="G6">
-        <v>97.981999999999999</v>
+        <v>90.194999999999993</v>
       </c>
       <c r="H6">
-        <v>140.626</v>
+        <v>99.683000000000007</v>
       </c>
       <c r="I6">
-        <v>5.2060000000000004</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2.7E-2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,75 +1224,75 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.86</v>
+        <v>9.9939999999999998</v>
       </c>
       <c r="O6">
-        <v>22.847999999999999</v>
+        <v>10.021000000000001</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q6">
-        <v>-0.246</v>
+        <v>-9.4039999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>117.77800000000001</v>
+        <v>89.662000000000006</v>
       </c>
       <c r="U6">
-        <v>5.0919999999999996</v>
+        <v>42.201999999999998</v>
       </c>
       <c r="V6">
-        <v>4.931</v>
+        <v>-4.7389999999999999</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>3.9860000000000002</v>
+        <v>0.05</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-7.984</v>
+        <v>-4.125</v>
       </c>
       <c r="AA6">
-        <v>2.9209999999999998</v>
+        <v>-5.32</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>2.5670000000000002</v>
+        <v>-5.1319999999999997</v>
       </c>
       <c r="D7">
-        <v>37.344000000000001</v>
+        <v>8.0960000000000001</v>
       </c>
       <c r="E7">
-        <v>20.457999999999998</v>
+        <v>7.056</v>
       </c>
       <c r="F7">
-        <v>30.558</v>
+        <v>5.2279999999999998</v>
       </c>
       <c r="G7">
-        <v>110.539</v>
+        <v>83.435000000000002</v>
       </c>
       <c r="H7">
-        <v>153.911</v>
+        <v>89.176000000000002</v>
       </c>
       <c r="I7">
-        <v>6.91</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,75 +1307,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.414999999999999</v>
+        <v>9.3079999999999998</v>
       </c>
       <c r="O7">
-        <v>27.614000000000001</v>
+        <v>9.3079999999999998</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="Q7">
-        <v>0.89800000000000002</v>
+        <v>3.4649999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>397</v>
+        <v>295</v>
       </c>
       <c r="T7">
-        <v>126.297</v>
+        <v>79.867999999999995</v>
       </c>
       <c r="U7">
-        <v>5.99</v>
+        <v>45.667000000000002</v>
       </c>
       <c r="V7">
-        <v>4.9930000000000003</v>
+        <v>-6.875</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>2.6970000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-6.75</v>
+        <v>10.615</v>
       </c>
       <c r="AA7">
-        <v>2.5670000000000002</v>
+        <v>-5.1319999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>3.1190000000000002</v>
+        <v>-5.5</v>
       </c>
       <c r="D8">
-        <v>38.783000000000001</v>
+        <v>5.306</v>
       </c>
       <c r="E8">
-        <v>18.343</v>
+        <v>6.5019999999999998</v>
       </c>
       <c r="F8">
-        <v>31.337</v>
+        <v>3.56</v>
       </c>
       <c r="G8">
-        <v>113.791</v>
+        <v>76.468999999999994</v>
       </c>
       <c r="H8">
-        <v>154.90199999999999</v>
+        <v>81.951999999999998</v>
       </c>
       <c r="I8">
-        <v>6.2939999999999996</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1267,78 +1387,78 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="N8">
-        <v>19.114999999999998</v>
+        <v>7.5229999999999997</v>
       </c>
       <c r="O8">
-        <v>24.382000000000001</v>
+        <v>7.5229999999999997</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="Q8">
-        <v>-2.0009999999999999</v>
+        <v>7.6349999999999998</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>130.52000000000001</v>
+        <v>74.429000000000002</v>
       </c>
       <c r="U8">
-        <v>3.9889999999999999</v>
+        <v>53.302</v>
       </c>
       <c r="V8">
-        <v>4.3179999999999996</v>
+        <v>-6.8419999999999996</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0.99</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-6</v>
+        <v>14.69</v>
       </c>
       <c r="AA8">
-        <v>3.1190000000000002</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>5.4690000000000003</v>
+        <v>-5.1920000000000002</v>
       </c>
       <c r="D9">
-        <v>37.417000000000002</v>
+        <v>5.5759999999999996</v>
       </c>
       <c r="E9">
-        <v>18.800999999999998</v>
+        <v>5.4080000000000004</v>
       </c>
       <c r="F9">
-        <v>30.222999999999999</v>
+        <v>3.9279999999999999</v>
       </c>
       <c r="G9">
-        <v>124.03400000000001</v>
+        <v>71.206000000000003</v>
       </c>
       <c r="H9">
-        <v>165.846</v>
+        <v>76.564999999999998</v>
       </c>
       <c r="I9">
-        <v>5.2110000000000003</v>
+        <v>1.048</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,75 +1473,75 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.702999999999999</v>
+        <v>7.0940000000000003</v>
       </c>
       <c r="O9">
-        <v>25.173999999999999</v>
+        <v>7.0940000000000003</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="Q9">
-        <v>0.50800000000000001</v>
+        <v>-4.7069999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>140.672</v>
+        <v>69.471000000000004</v>
       </c>
       <c r="U9">
-        <v>4.4969999999999999</v>
+        <v>48.594999999999999</v>
       </c>
       <c r="V9">
-        <v>6.8140000000000001</v>
+        <v>-3.2269999999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>1.5349999999999999</v>
+        <v>0.214</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-7.25</v>
+        <v>-1.3049999999999999</v>
       </c>
       <c r="AA9">
-        <v>5.4690000000000003</v>
+        <v>-5.1920000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>2.6840000000000002</v>
+        <v>-4.4390000000000001</v>
       </c>
       <c r="D10">
-        <v>38.25</v>
+        <v>5.62</v>
       </c>
       <c r="E10">
-        <v>19.914999999999999</v>
+        <v>4.351</v>
       </c>
       <c r="F10">
-        <v>30.12</v>
+        <v>3.4550000000000001</v>
       </c>
       <c r="G10">
-        <v>122.002</v>
+        <v>66.488</v>
       </c>
       <c r="H10">
-        <v>165.00899999999999</v>
+        <v>71.433000000000007</v>
       </c>
       <c r="I10">
-        <v>6.306</v>
+        <v>0.81</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,75 +1556,75 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.289000000000001</v>
+        <v>6.4009999999999998</v>
       </c>
       <c r="O10">
-        <v>28.963999999999999</v>
+        <v>6.4009999999999998</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6.26</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>136.04499999999999</v>
+        <v>65.031999999999996</v>
       </c>
       <c r="U10">
-        <v>10.757</v>
+        <v>49.987000000000002</v>
       </c>
       <c r="V10">
-        <v>7.7089999999999996</v>
+        <v>-2.6</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-10.407999999999999</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>9.4979999999999993</v>
+        <v>4.165</v>
       </c>
       <c r="AA10">
-        <v>2.6840000000000002</v>
+        <v>-4.4390000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>3.742</v>
+        <v>-3.04</v>
       </c>
       <c r="D11">
-        <v>43.673999999999999</v>
+        <v>6.8079999999999998</v>
       </c>
       <c r="E11">
-        <v>22.946000000000002</v>
+        <v>5.2240000000000002</v>
       </c>
       <c r="F11">
-        <v>34.847999999999999</v>
+        <v>4.5839999999999996</v>
       </c>
       <c r="G11">
-        <v>116.605</v>
+        <v>63.412999999999997</v>
       </c>
       <c r="H11">
-        <v>169.999</v>
+        <v>68.516000000000005</v>
       </c>
       <c r="I11">
-        <v>7.6959999999999997</v>
+        <v>1.399</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1519,75 +1639,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>27.056000000000001</v>
+        <v>6.4260000000000002</v>
       </c>
       <c r="O11">
-        <v>32.918999999999997</v>
+        <v>6.4260000000000002</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>-1.306</v>
+        <v>-5.415</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>467</v>
+        <v>238</v>
       </c>
       <c r="T11">
-        <v>137.08000000000001</v>
+        <v>62.09</v>
       </c>
       <c r="U11">
-        <v>9.4510000000000005</v>
+        <v>44.572000000000003</v>
       </c>
       <c r="V11">
-        <v>7.5579999999999998</v>
+        <v>-3.5150000000000001</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-3.9279999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-3.677</v>
+        <v>-1.7729999999999999</v>
       </c>
       <c r="AA11">
-        <v>3.742</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-1.7230000000000001</v>
+        <v>-3.1850000000000001</v>
       </c>
       <c r="D12">
-        <v>42.67</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E12">
-        <v>20.983000000000001</v>
+        <v>4.2729999999999997</v>
       </c>
       <c r="F12">
-        <v>33.947000000000003</v>
+        <v>3.7879999999999998</v>
       </c>
       <c r="G12">
-        <v>106.685</v>
+        <v>59.033999999999999</v>
       </c>
       <c r="H12">
-        <v>170.46299999999999</v>
+        <v>63.558999999999997</v>
       </c>
       <c r="I12">
-        <v>6.27</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,75 +1722,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.091999999999999</v>
+        <v>4.6070000000000002</v>
       </c>
       <c r="O12">
-        <v>29.158000000000001</v>
+        <v>4.6070000000000002</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2.2759999999999998</v>
+        <v>-2.72</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>141.30500000000001</v>
+        <v>58.951999999999998</v>
       </c>
       <c r="U12">
-        <v>11.727</v>
+        <v>41.851999999999997</v>
       </c>
       <c r="V12">
-        <v>-3.3000000000000002E-2</v>
+        <v>-3.8109999999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>1.5049999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1.599</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="AA12">
-        <v>-1.7230000000000001</v>
+        <v>-3.1850000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1.0589999999999999</v>
+        <v>-2.7610000000000001</v>
       </c>
       <c r="D13">
-        <v>44.344999999999999</v>
+        <v>5.3410000000000002</v>
       </c>
       <c r="E13">
-        <v>21.119</v>
+        <v>3.3519999999999999</v>
       </c>
       <c r="F13">
-        <v>35.317999999999998</v>
+        <v>3.84</v>
       </c>
       <c r="G13">
-        <v>110.614</v>
+        <v>56.414000000000001</v>
       </c>
       <c r="H13">
-        <v>181.01900000000001</v>
+        <v>60.615000000000002</v>
       </c>
       <c r="I13">
-        <v>6.1820000000000004</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1805,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.045999999999999</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="O13">
-        <v>30.315000000000001</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>-1.607</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>150.70400000000001</v>
+        <v>56.475000000000001</v>
       </c>
       <c r="U13">
-        <v>10.119999999999999</v>
+        <v>42.256999999999998</v>
       </c>
       <c r="V13">
-        <v>5.1550000000000002</v>
+        <v>-1.956</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>3.6989999999999998</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-10.448</v>
+        <v>2.1349999999999998</v>
       </c>
       <c r="AA13">
-        <v>1.0589999999999999</v>
+        <v>-2.7610000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>4.3929999999999998</v>
+        <v>-1.9670000000000001</v>
       </c>
       <c r="D14">
-        <v>46.195</v>
+        <v>6.6829999999999998</v>
       </c>
       <c r="E14">
-        <v>22.957999999999998</v>
+        <v>3.8540000000000001</v>
       </c>
       <c r="F14">
-        <v>36.737000000000002</v>
+        <v>4.4740000000000002</v>
       </c>
       <c r="G14">
-        <v>119.729</v>
+        <v>35.853000000000002</v>
       </c>
       <c r="H14">
-        <v>193.36500000000001</v>
+        <v>58.831000000000003</v>
       </c>
       <c r="I14">
-        <v>6.0659999999999998</v>
+        <v>1.02</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1888,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>26.434999999999999</v>
+        <v>3.9830000000000001</v>
       </c>
       <c r="O14">
-        <v>32.908000000000001</v>
+        <v>3.9830000000000001</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.512</v>
+        <v>-27.047000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>160.45699999999999</v>
+        <v>54.847999999999999</v>
       </c>
       <c r="U14">
-        <v>22.632000000000001</v>
+        <v>15.21</v>
       </c>
       <c r="V14">
-        <v>8.4489999999999998</v>
+        <v>-1.5860000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>2.9089999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>2.0329999999999999</v>
+        <v>-25.73</v>
       </c>
       <c r="AA14">
-        <v>4.3929999999999998</v>
+        <v>-1.9670000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>3.6219999999999999</v>
+        <v>-1.5329999999999999</v>
       </c>
       <c r="D15">
-        <v>47.732999999999997</v>
+        <v>8.6150000000000002</v>
       </c>
       <c r="E15">
-        <v>24.356999999999999</v>
+        <v>5.9720000000000004</v>
       </c>
       <c r="F15">
-        <v>40.319000000000003</v>
+        <v>5.6239999999999997</v>
       </c>
       <c r="G15">
-        <v>117.96599999999999</v>
+        <v>36.920999999999999</v>
       </c>
       <c r="H15">
-        <v>205.40700000000001</v>
+        <v>59.161000000000001</v>
       </c>
       <c r="I15">
-        <v>7.7460000000000004</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1851,75 +1971,75 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>30.411000000000001</v>
+        <v>4.8250000000000002</v>
       </c>
       <c r="O15">
-        <v>37.054000000000002</v>
+        <v>4.8250000000000002</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>-1.716</v>
+        <v>-8.375</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>511</v>
+        <v>239</v>
       </c>
       <c r="T15">
-        <v>168.35300000000001</v>
+        <v>54.335999999999999</v>
       </c>
       <c r="U15">
-        <v>20.916</v>
+        <v>6.835</v>
       </c>
       <c r="V15">
-        <v>9.8949999999999996</v>
+        <v>-2.6850000000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1.5189999999999999</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-12.695</v>
+        <v>-6.4109999999999996</v>
       </c>
       <c r="AA15">
-        <v>3.6219999999999999</v>
+        <v>-1.5329999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>-1.7090000000000001</v>
+        <v>-2.379</v>
       </c>
       <c r="D16">
-        <v>48.811</v>
+        <v>7.4409999999999998</v>
       </c>
       <c r="E16">
-        <v>22.763000000000002</v>
+        <v>5.4160000000000004</v>
       </c>
       <c r="F16">
-        <v>39.122</v>
+        <v>5.5780000000000003</v>
       </c>
       <c r="G16">
-        <v>127.215</v>
+        <v>43.482999999999997</v>
       </c>
       <c r="H16">
-        <v>206.18600000000001</v>
+        <v>59.637999999999998</v>
       </c>
       <c r="I16">
-        <v>6.7590000000000003</v>
+        <v>1.3089999999999999</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,75 +2054,75 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>28.974</v>
+        <v>5.0940000000000003</v>
       </c>
       <c r="O16">
-        <v>35.835999999999999</v>
+        <v>5.0940000000000003</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.824</v>
+        <v>-0.67</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>170.35</v>
+        <v>54.543999999999997</v>
       </c>
       <c r="U16">
-        <v>34.74</v>
+        <v>6.2229999999999999</v>
       </c>
       <c r="V16">
-        <v>3.19</v>
+        <v>-2.7410000000000001</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-0.193</v>
+        <v>2.5830000000000002</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>11.206</v>
+        <v>-0.28299999999999997</v>
       </c>
       <c r="AA16">
-        <v>-1.7090000000000001</v>
+        <v>-2.379</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>3.839</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D17">
-        <v>51.938000000000002</v>
+        <v>10.436999999999999</v>
       </c>
       <c r="E17">
-        <v>23.071999999999999</v>
+        <v>6.7880000000000003</v>
       </c>
       <c r="F17">
-        <v>42.326000000000001</v>
+        <v>7.9050000000000002</v>
       </c>
       <c r="G17">
-        <v>135.291</v>
+        <v>49.347999999999999</v>
       </c>
       <c r="H17">
-        <v>215.54400000000001</v>
+        <v>59.643000000000001</v>
       </c>
       <c r="I17">
-        <v>7.6159999999999997</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2017,75 +2137,75 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>27.134</v>
+        <v>4.431</v>
       </c>
       <c r="O17">
-        <v>40.006</v>
+        <v>4.431</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>-17.257000000000001</v>
+        <v>-1.502</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>175.53800000000001</v>
+        <v>55.212000000000003</v>
       </c>
       <c r="U17">
-        <v>17.483000000000001</v>
+        <v>4.7210000000000001</v>
       </c>
       <c r="V17">
-        <v>6.7119999999999997</v>
+        <v>-1.619</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>2.137</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-8.9860000000000007</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="AA17">
-        <v>3.839</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>12.683999999999999</v>
+        <v>-0.20100000000000001</v>
       </c>
       <c r="D18">
-        <v>62.005000000000003</v>
+        <v>9.5660000000000007</v>
       </c>
       <c r="E18">
-        <v>28.373000000000001</v>
+        <v>7.3220000000000001</v>
       </c>
       <c r="F18">
-        <v>52.167000000000002</v>
+        <v>7.0679999999999996</v>
       </c>
       <c r="G18">
-        <v>160.572</v>
+        <v>53.84</v>
       </c>
       <c r="H18">
-        <v>240.773</v>
+        <v>60.65</v>
       </c>
       <c r="I18">
-        <v>8.2490000000000006</v>
+        <v>1.0660000000000001</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2100,75 +2220,75 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>31.405000000000001</v>
+        <v>4.57</v>
       </c>
       <c r="O18">
-        <v>45.055</v>
+        <v>4.57</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.9950000000000001</v>
+        <v>2.4089999999999998</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>195.71799999999999</v>
+        <v>56.08</v>
       </c>
       <c r="U18">
-        <v>19.478000000000002</v>
+        <v>7.13</v>
       </c>
       <c r="V18">
-        <v>15.125</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>6.0640000000000001</v>
+        <v>1.048</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-17.991</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="AA18">
-        <v>12.683999999999999</v>
+        <v>-0.20100000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>98.873999999999995</v>
+        <v>-0.221</v>
       </c>
       <c r="D19">
-        <v>67.557000000000002</v>
+        <v>10.772</v>
       </c>
       <c r="E19">
-        <v>31.827999999999999</v>
+        <v>8.6349999999999998</v>
       </c>
       <c r="F19">
-        <v>56.750999999999998</v>
+        <v>8.2989999999999995</v>
       </c>
       <c r="G19">
-        <v>185.03899999999999</v>
+        <v>55.223999999999997</v>
       </c>
       <c r="H19">
-        <v>338.36700000000002</v>
+        <v>61.061</v>
       </c>
       <c r="I19">
-        <v>10.388999999999999</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2183,75 +2303,75 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>39.319000000000003</v>
+        <v>4.8819999999999997</v>
       </c>
       <c r="O19">
-        <v>46.807000000000002</v>
+        <v>4.8819999999999997</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2.923</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>589</v>
+        <v>305</v>
       </c>
       <c r="T19">
-        <v>291.56</v>
+        <v>56.179000000000002</v>
       </c>
       <c r="U19">
-        <v>22.401</v>
+        <v>7.6180000000000003</v>
       </c>
       <c r="V19">
-        <v>18.263000000000002</v>
+        <v>-1.17</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>1.5149999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-13.207000000000001</v>
+        <v>1.589</v>
       </c>
       <c r="AA19">
-        <v>98.873999999999995</v>
+        <v>-0.221</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>8.859</v>
+        <v>-18.507999999999999</v>
       </c>
       <c r="D20">
-        <v>73.432000000000002</v>
+        <v>8.423</v>
       </c>
       <c r="E20">
-        <v>34.372</v>
+        <v>7.1130000000000004</v>
       </c>
       <c r="F20">
-        <v>62.564</v>
+        <v>6.0590000000000002</v>
       </c>
       <c r="G20">
-        <v>244.11199999999999</v>
+        <v>53.764000000000003</v>
       </c>
       <c r="H20">
-        <v>352.00599999999997</v>
+        <v>85.728999999999999</v>
       </c>
       <c r="I20">
-        <v>8.6170000000000009</v>
+        <v>2.23</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2266,75 +2386,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>36.283000000000001</v>
+        <v>7.3369999999999997</v>
       </c>
       <c r="O20">
-        <v>43.954999999999998</v>
+        <v>7.3369999999999997</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18.03</v>
+        <v>-0.83</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>308.05099999999999</v>
+        <v>78.391999999999996</v>
       </c>
       <c r="U20">
-        <v>40.430999999999997</v>
+        <v>6.7880000000000003</v>
       </c>
       <c r="V20">
-        <v>10.914</v>
+        <v>-3.3149999999999999</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1.21</v>
+        <v>1.258</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>7.6020000000000003</v>
+        <v>3.5550000000000002</v>
       </c>
       <c r="AA20">
-        <v>8.859</v>
+        <v>-18.507999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>7.7350000000000003</v>
+        <v>-2.7789999999999999</v>
       </c>
       <c r="D21">
-        <v>76.358999999999995</v>
+        <v>10.936</v>
       </c>
       <c r="E21">
-        <v>37.119</v>
+        <v>7.94</v>
       </c>
       <c r="F21">
-        <v>64.215000000000003</v>
+        <v>8.3789999999999996</v>
       </c>
       <c r="G21">
-        <v>265.404</v>
+        <v>51.021000000000001</v>
       </c>
       <c r="H21">
-        <v>373.40600000000001</v>
+        <v>82.656000000000006</v>
       </c>
       <c r="I21">
-        <v>8.7880000000000003</v>
+        <v>1.633</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2349,75 +2469,75 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>34.451999999999998</v>
+        <v>6.2149999999999999</v>
       </c>
       <c r="O21">
-        <v>42.31</v>
+        <v>6.2149999999999999</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.99</v>
+        <v>8.4760000000000009</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>331.096</v>
+        <v>76.441000000000003</v>
       </c>
       <c r="U21">
-        <v>54.420999999999999</v>
+        <v>15.263999999999999</v>
       </c>
       <c r="V21">
-        <v>17.942</v>
+        <v>-2.8180000000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>3.7850000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-5.9009999999999998</v>
+        <v>12.05</v>
       </c>
       <c r="AA21">
-        <v>7.7350000000000003</v>
+        <v>-2.7789999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>10.555</v>
+        <v>-4.4800000000000004</v>
       </c>
       <c r="D22">
-        <v>85.795000000000002</v>
+        <v>10.515000000000001</v>
       </c>
       <c r="E22">
-        <v>36.841999999999999</v>
+        <v>8.4160000000000004</v>
       </c>
       <c r="F22">
-        <v>73.051000000000002</v>
+        <v>7.3470000000000004</v>
       </c>
       <c r="G22">
-        <v>281.745</v>
+        <v>47.359000000000002</v>
       </c>
       <c r="H22">
-        <v>391.62599999999998</v>
+        <v>81.844999999999999</v>
       </c>
       <c r="I22">
-        <v>8.8360000000000003</v>
+        <v>1.8029999999999999</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2432,75 +2552,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>37.67</v>
+        <v>6.407</v>
       </c>
       <c r="O22">
-        <v>46.097000000000001</v>
+        <v>10.143000000000001</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>-1.1950000000000001</v>
+        <v>-7.3570000000000002</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>345.529</v>
+        <v>71.701999999999998</v>
       </c>
       <c r="U22">
-        <v>53.225999999999999</v>
+        <v>7.907</v>
       </c>
       <c r="V22">
-        <v>25.382000000000001</v>
+        <v>-2.93</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>0.27300000000000002</v>
+        <v>0.187</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-21.850999999999999</v>
+        <v>-3.6560000000000001</v>
       </c>
       <c r="AA22">
-        <v>10.555</v>
+        <v>-4.4800000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>10.997999999999999</v>
+        <v>-3.6819999999999999</v>
       </c>
       <c r="D23">
-        <v>93.956999999999994</v>
+        <v>13.795999999999999</v>
       </c>
       <c r="E23">
-        <v>42.820999999999998</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F23">
-        <v>79.293999999999997</v>
+        <v>9.8840000000000003</v>
       </c>
       <c r="G23">
-        <v>288.392</v>
+        <v>46.442999999999998</v>
       </c>
       <c r="H23">
-        <v>423.93099999999998</v>
+        <v>78.537000000000006</v>
       </c>
       <c r="I23">
-        <v>9.3810000000000002</v>
+        <v>3.07</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2515,75 +2635,75 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>46.540999999999997</v>
+        <v>8.7390000000000008</v>
       </c>
       <c r="O23">
-        <v>55.155999999999999</v>
+        <v>9.0489999999999995</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>-4.9950000000000001</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>747</v>
+        <v>300</v>
       </c>
       <c r="T23">
-        <v>368.77499999999998</v>
+        <v>69.488</v>
       </c>
       <c r="U23">
-        <v>48.231000000000002</v>
+        <v>7.8319999999999999</v>
       </c>
       <c r="V23">
-        <v>22.556999999999999</v>
+        <v>-0.27600000000000002</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>1.8919999999999999</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-21.936</v>
+        <v>1.046</v>
       </c>
       <c r="AA23">
-        <v>10.997999999999999</v>
+        <v>-3.6819999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>12.91</v>
+        <v>-6.1310000000000002</v>
       </c>
       <c r="D24">
-        <v>102.995</v>
+        <v>13.007999999999999</v>
       </c>
       <c r="E24">
-        <v>41.28</v>
+        <v>9.6790000000000003</v>
       </c>
       <c r="F24">
-        <v>87.924999999999997</v>
+        <v>9.5050000000000008</v>
       </c>
       <c r="G24">
-        <v>300.28800000000001</v>
+        <v>40.911000000000001</v>
       </c>
       <c r="H24">
-        <v>429.31200000000001</v>
+        <v>74.694000000000003</v>
       </c>
       <c r="I24">
-        <v>8.3719999999999999</v>
+        <v>2.375</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2598,75 +2718,75 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>43.219000000000001</v>
+        <v>7.1420000000000003</v>
       </c>
       <c r="O24">
-        <v>51.984999999999999</v>
+        <v>7.5890000000000004</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>-9.9570000000000007</v>
+        <v>1.9</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>377.327</v>
+        <v>67.105000000000004</v>
       </c>
       <c r="U24">
-        <v>38.274000000000001</v>
+        <v>9.7319999999999993</v>
       </c>
       <c r="V24">
-        <v>26.38</v>
+        <v>-4.9390000000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-11.222</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-20.228000000000002</v>
+        <v>7.9379999999999997</v>
       </c>
       <c r="AA24">
-        <v>12.91</v>
+        <v>-6.1310000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>8.875</v>
+        <v>-8.6760000000000002</v>
       </c>
       <c r="D25">
-        <v>102.955</v>
+        <v>10.885999999999999</v>
       </c>
       <c r="E25">
-        <v>46.606999999999999</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F25">
-        <v>85.646000000000001</v>
+        <v>7.9480000000000004</v>
       </c>
       <c r="G25">
-        <v>319.87</v>
+        <v>37.944000000000003</v>
       </c>
       <c r="H25">
-        <v>474.89800000000002</v>
+        <v>71.078999999999994</v>
       </c>
       <c r="I25">
-        <v>14.066000000000001</v>
+        <v>3.512</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2681,75 +2801,75 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>51.921999999999997</v>
+        <v>9.5519999999999996</v>
       </c>
       <c r="O25">
-        <v>76.456999999999994</v>
+        <v>10.102</v>
       </c>
       <c r="P25">
-        <v>16.701000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.434999999999999</v>
+        <v>-2.68</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>398.44099999999997</v>
+        <v>60.976999999999997</v>
       </c>
       <c r="U25">
-        <v>54.709000000000003</v>
+        <v>7.0519999999999996</v>
       </c>
       <c r="V25">
-        <v>17.356000000000002</v>
+        <v>-3.57</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>1.6950000000000001</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="Y25">
-        <v>15.961</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>2.6779999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AA25">
-        <v>8.875</v>
+        <v>-8.6760000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>15.432</v>
+        <v>-6.7249999999999996</v>
       </c>
       <c r="D26">
-        <v>114.67400000000001</v>
+        <v>12.904</v>
       </c>
       <c r="E26">
-        <v>50.177999999999997</v>
+        <v>9.23</v>
       </c>
       <c r="F26">
-        <v>95.686999999999998</v>
+        <v>9.9860000000000007</v>
       </c>
       <c r="G26">
-        <v>333.41899999999998</v>
+        <v>34.994</v>
       </c>
       <c r="H26">
-        <v>500.964</v>
+        <v>74.534000000000006</v>
       </c>
       <c r="I26">
-        <v>14.558</v>
+        <v>4.6360000000000001</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2764,75 +2884,75 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>58.871000000000002</v>
+        <v>10.999000000000001</v>
       </c>
       <c r="O26">
-        <v>83.584000000000003</v>
+        <v>17.454999999999998</v>
       </c>
       <c r="P26">
-        <v>16.52</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>6.36</v>
+        <v>-0.97099999999999997</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>417.38</v>
+        <v>57.079000000000001</v>
       </c>
       <c r="U26">
-        <v>61.069000000000003</v>
+        <v>6.0810000000000004</v>
       </c>
       <c r="V26">
-        <v>34.125</v>
+        <v>-4.8029999999999999</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>2.9940000000000002</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="Y26">
-        <v>15.75</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>-15.52</v>
+        <v>3.77</v>
       </c>
       <c r="AA26">
-        <v>15.432</v>
+        <v>-6.7249999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>14.898999999999999</v>
+        <v>-6.3490000000000002</v>
       </c>
       <c r="D27">
-        <v>124.68</v>
+        <v>13.851000000000001</v>
       </c>
       <c r="E27">
-        <v>54.055</v>
+        <v>10.932</v>
       </c>
       <c r="F27">
-        <v>105.419</v>
+        <v>11.029</v>
       </c>
       <c r="G27">
-        <v>326.95800000000003</v>
+        <v>96.382000000000005</v>
       </c>
       <c r="H27">
-        <v>550.41399999999999</v>
+        <v>136.18299999999999</v>
       </c>
       <c r="I27">
-        <v>20.62</v>
+        <v>5.1849999999999996</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2847,75 +2967,75 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>69.617000000000004</v>
+        <v>12.897</v>
       </c>
       <c r="O27">
-        <v>98.343000000000004</v>
+        <v>14.087999999999999</v>
       </c>
       <c r="P27">
-        <v>16.338000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>-22.029</v>
+        <v>63.564999999999998</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>908</v>
+        <v>324</v>
       </c>
       <c r="T27">
-        <v>452.07100000000003</v>
+        <v>122.095</v>
       </c>
       <c r="U27">
-        <v>39.04</v>
+        <v>69.646000000000001</v>
       </c>
       <c r="V27">
-        <v>37.255000000000003</v>
+        <v>-6.508</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>10.4</v>
+        <v>64.622</v>
       </c>
       <c r="Y27">
-        <v>15.539</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>-42.847999999999999</v>
+        <v>5.681</v>
       </c>
       <c r="AA27">
-        <v>14.898999999999999</v>
+        <v>-6.3490000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>37.374000000000002</v>
+        <v>-8.2750000000000004</v>
       </c>
       <c r="D28">
-        <v>132.46799999999999</v>
+        <v>14.063000000000001</v>
       </c>
       <c r="E28">
-        <v>53.557000000000002</v>
+        <v>13.829000000000001</v>
       </c>
       <c r="F28">
-        <v>110.60599999999999</v>
+        <v>10.531000000000001</v>
       </c>
       <c r="G28">
-        <v>350.91500000000002</v>
+        <v>89.326999999999998</v>
       </c>
       <c r="H28">
-        <v>652.21699999999998</v>
+        <v>129.536</v>
       </c>
       <c r="I28">
-        <v>12.784000000000001</v>
+        <v>3.5550000000000002</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2927,78 +3047,78 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-0.184</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>59.005000000000003</v>
+        <v>10.144</v>
       </c>
       <c r="O28">
-        <v>85.173000000000002</v>
+        <v>11.913</v>
       </c>
       <c r="P28">
-        <v>16.154</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>4.93</v>
+        <v>-7.4189999999999996</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>567.04399999999998</v>
+        <v>117.623</v>
       </c>
       <c r="U28">
-        <v>43.97</v>
+        <v>62.226999999999997</v>
       </c>
       <c r="V28">
-        <v>36.293999999999997</v>
+        <v>-12.789</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-14.433999999999999</v>
+        <v>1.3660000000000001</v>
       </c>
       <c r="Y28">
-        <v>15.324999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>-7.4039999999999999</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="AA28">
-        <v>37.374000000000002</v>
+        <v>-8.2750000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>24.503</v>
+        <v>-9.3819999999999997</v>
       </c>
       <c r="D29">
-        <v>132.82300000000001</v>
+        <v>11.355</v>
       </c>
       <c r="E29">
-        <v>57.326999999999998</v>
+        <v>8.6150000000000002</v>
       </c>
       <c r="F29">
-        <v>111.196</v>
+        <v>8.4779999999999998</v>
       </c>
       <c r="G29">
-        <v>370.17</v>
+        <v>84.394000000000005</v>
       </c>
       <c r="H29">
-        <v>694.65300000000002</v>
+        <v>126.812</v>
       </c>
       <c r="I29">
-        <v>16.667000000000002</v>
+        <v>5.3120000000000003</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3013,75 +3133,75 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>63.357999999999997</v>
+        <v>12.667999999999999</v>
       </c>
       <c r="O29">
-        <v>89.766999999999996</v>
+        <v>15.401</v>
       </c>
       <c r="P29">
-        <v>15.961</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.56599999999999995</v>
+        <v>-2.7090000000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>604.88599999999997</v>
+        <v>111.411</v>
       </c>
       <c r="U29">
-        <v>44.536000000000001</v>
+        <v>59.518000000000001</v>
       </c>
       <c r="V29">
-        <v>43.156999999999996</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>1.1399999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Y29">
-        <v>15.11</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>-29.114000000000001</v>
+        <v>0.499</v>
       </c>
       <c r="AA29">
-        <v>24.503</v>
+        <v>-9.3819999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>13.446</v>
+        <v>-8.3010000000000002</v>
       </c>
       <c r="D30">
-        <v>154.02199999999999</v>
+        <v>16.015000000000001</v>
       </c>
       <c r="E30">
-        <v>64.861999999999995</v>
+        <v>11.679</v>
       </c>
       <c r="F30">
-        <v>129.02799999999999</v>
+        <v>12.242000000000001</v>
       </c>
       <c r="G30">
-        <v>422.19799999999998</v>
+        <v>79.025999999999996</v>
       </c>
       <c r="H30">
-        <v>719.60199999999998</v>
+        <v>126.117</v>
       </c>
       <c r="I30">
-        <v>21.991</v>
+        <v>7.4130000000000003</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3096,75 +3216,75 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>75.352999999999994</v>
+        <v>17.102</v>
       </c>
       <c r="O30">
-        <v>87.12</v>
+        <v>22.116</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>5.9660000000000002</v>
+        <v>-53.942</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>632.48199999999997</v>
+        <v>104.001</v>
       </c>
       <c r="U30">
-        <v>50.502000000000002</v>
+        <v>5.5759999999999996</v>
       </c>
       <c r="V30">
-        <v>56.695999999999998</v>
+        <v>-5.9790000000000001</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>1.6060000000000001</v>
+        <v>-1.1719999999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-25.221</v>
+        <v>-45.023000000000003</v>
       </c>
       <c r="AA30">
-        <v>13.446</v>
+        <v>-8.3010000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>36.847000000000001</v>
+        <v>-14.972</v>
       </c>
       <c r="D31">
-        <v>174.43600000000001</v>
+        <v>17.507000000000001</v>
       </c>
       <c r="E31">
-        <v>70.010000000000005</v>
+        <v>14.071</v>
       </c>
       <c r="F31">
-        <v>144.33799999999999</v>
+        <v>12.295</v>
       </c>
       <c r="G31">
-        <v>494.27100000000002</v>
+        <v>71.503</v>
       </c>
       <c r="H31">
-        <v>786.375</v>
+        <v>118.03100000000001</v>
       </c>
       <c r="I31">
-        <v>23.565000000000001</v>
+        <v>9.0239999999999991</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3179,75 +3299,75 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>84.682000000000002</v>
+        <v>19.475999999999999</v>
       </c>
       <c r="O31">
-        <v>96.850999999999999</v>
+        <v>24.437000000000001</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>-7.5270000000000001</v>
+        <v>-3.5339999999999998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>1143</v>
+        <v>377</v>
       </c>
       <c r="T31">
-        <v>689.524</v>
+        <v>93.593999999999994</v>
       </c>
       <c r="U31">
-        <v>42.975000000000001</v>
+        <v>2.0419999999999998</v>
       </c>
       <c r="V31">
-        <v>56.399000000000001</v>
+        <v>-7.556</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>2.5510000000000002</v>
+        <v>1.196</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-63.16</v>
+        <v>7.6079999999999997</v>
       </c>
       <c r="AA31">
-        <v>36.847000000000001</v>
+        <v>-14.972</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>90.066000000000003</v>
+        <v>-9.1140000000000008</v>
       </c>
       <c r="D32">
-        <v>180.01</v>
+        <v>16.356999999999999</v>
       </c>
       <c r="E32">
-        <v>67.510999999999996</v>
+        <v>13.882999999999999</v>
       </c>
       <c r="F32">
-        <v>149.16</v>
+        <v>10.73</v>
       </c>
       <c r="G32">
-        <v>497.29700000000003</v>
+        <v>63.331000000000003</v>
       </c>
       <c r="H32">
-        <v>812.03899999999999</v>
+        <v>114.627</v>
       </c>
       <c r="I32">
-        <v>25.672999999999998</v>
+        <v>6.79</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3262,75 +3382,75 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>76.677999999999997</v>
+        <v>15.683</v>
       </c>
       <c r="O32">
-        <v>88.68</v>
+        <v>20.555</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18.312999999999999</v>
+        <v>-0.41499999999999998</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>723.35900000000004</v>
+        <v>94.072000000000003</v>
       </c>
       <c r="U32">
-        <v>61.287999999999997</v>
+        <v>1.627</v>
       </c>
       <c r="V32">
-        <v>46.631</v>
+        <v>-11.904999999999999</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-61.8</v>
+        <v>2.4359999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>49.914000000000001</v>
+        <v>9.6530000000000005</v>
       </c>
       <c r="AA32">
-        <v>90.066000000000003</v>
+        <v>-9.1140000000000008</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>50.127000000000002</v>
+        <v>-6.33</v>
       </c>
       <c r="D33">
-        <v>181.77799999999999</v>
+        <v>19.998999999999999</v>
       </c>
       <c r="E33">
-        <v>74.200999999999993</v>
+        <v>14.603</v>
       </c>
       <c r="F33">
-        <v>151.93199999999999</v>
+        <v>15.206</v>
       </c>
       <c r="G33">
-        <v>561.59900000000005</v>
+        <v>100.643</v>
       </c>
       <c r="H33">
-        <v>887.16499999999996</v>
+        <v>146.52799999999999</v>
       </c>
       <c r="I33">
-        <v>21.884</v>
+        <v>5.5389999999999997</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3345,75 +3465,75 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>81.978999999999999</v>
+        <v>14.198</v>
       </c>
       <c r="O33">
-        <v>94.210999999999999</v>
+        <v>19.074999999999999</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15.093999999999999</v>
+        <v>1.2889999999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>792.95399999999995</v>
+        <v>127.453</v>
       </c>
       <c r="U33">
-        <v>76.382000000000005</v>
+        <v>2.9159999999999999</v>
       </c>
       <c r="V33">
-        <v>60.56</v>
+        <v>-3.45</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>4.1219999999999999</v>
+        <v>42.557000000000002</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-37.451999999999998</v>
+        <v>-36.609000000000002</v>
       </c>
       <c r="AA33">
-        <v>50.127000000000002</v>
+        <v>-6.33</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>44.863</v>
+        <v>-7.6989999999999998</v>
       </c>
       <c r="D34">
-        <v>200.56299999999999</v>
+        <v>17.271000000000001</v>
       </c>
       <c r="E34">
-        <v>88.215000000000003</v>
+        <v>14.17</v>
       </c>
       <c r="F34">
-        <v>166.54</v>
+        <v>12.752000000000001</v>
       </c>
       <c r="G34">
-        <v>628.72799999999995</v>
+        <v>96.391999999999996</v>
       </c>
       <c r="H34">
-        <v>957.11599999999999</v>
+        <v>142.11099999999999</v>
       </c>
       <c r="I34">
-        <v>26.178999999999998</v>
+        <v>3.9470000000000001</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3428,75 +3548,75 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>92.98</v>
+        <v>13.613</v>
       </c>
       <c r="O34">
-        <v>105.586</v>
+        <v>15.766999999999999</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7.7990000000000004</v>
+        <v>-0.182</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>851.53</v>
+        <v>126.34399999999999</v>
       </c>
       <c r="U34">
-        <v>84.180999999999997</v>
+        <v>2.734</v>
       </c>
       <c r="V34">
-        <v>74.614999999999995</v>
+        <v>-2.528</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-1.1160000000000001</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-57.694000000000003</v>
+        <v>1.3260000000000001</v>
       </c>
       <c r="AA34">
-        <v>44.862000000000002</v>
+        <v>-7.6989999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>73.959999999999994</v>
+        <v>-8.4540000000000006</v>
       </c>
       <c r="D35">
-        <v>207.08099999999999</v>
+        <v>19.582999999999998</v>
       </c>
       <c r="E35">
-        <v>90.808999999999997</v>
+        <v>15.724</v>
       </c>
       <c r="F35">
-        <v>172.232</v>
+        <v>13.606</v>
       </c>
       <c r="G35">
-        <v>677.197</v>
+        <v>88.489000000000004</v>
       </c>
       <c r="H35">
-        <v>1054.346</v>
+        <v>135.958</v>
       </c>
       <c r="I35">
-        <v>32.185000000000002</v>
+        <v>5.55</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3511,75 +3631,75 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>105.998</v>
+        <v>17.579000000000001</v>
       </c>
       <c r="O35">
-        <v>117.456</v>
+        <v>19.975000000000001</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36.840000000000003</v>
+        <v>-0.94899999999999995</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>1371</v>
+        <v>386</v>
       </c>
       <c r="T35">
-        <v>936.89</v>
+        <v>115.983</v>
       </c>
       <c r="U35">
-        <v>121.021</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="V35">
-        <v>70.391000000000005</v>
+        <v>-0.42199999999999999</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>3.0190000000000001</v>
+        <v>0.186</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-27.219000000000001</v>
+        <v>2.5760000000000001</v>
       </c>
       <c r="AA35">
-        <v>73.959999999999994</v>
+        <v>-8.4540000000000006</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>88.923000000000002</v>
+        <v>-7.76</v>
       </c>
       <c r="D36">
-        <v>207.666</v>
+        <v>19.913</v>
       </c>
       <c r="E36">
-        <v>86.206000000000003</v>
+        <v>14.476000000000001</v>
       </c>
       <c r="F36">
-        <v>170.59299999999999</v>
+        <v>14.840999999999999</v>
       </c>
       <c r="G36">
-        <v>677.36500000000001</v>
+        <v>82.570999999999998</v>
       </c>
       <c r="H36">
-        <v>1125.06</v>
+        <v>135.66200000000001</v>
       </c>
       <c r="I36">
-        <v>29.687999999999999</v>
+        <v>4.9160000000000004</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3594,75 +3714,75 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>100.20099999999999</v>
+        <v>16.234000000000002</v>
       </c>
       <c r="O36">
-        <v>122.467</v>
+        <v>18.907</v>
       </c>
       <c r="P36">
-        <v>13.664999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-19.972999999999999</v>
+        <v>0.186</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1002.593</v>
+        <v>116.755</v>
       </c>
       <c r="U36">
-        <v>101.048</v>
+        <v>1.9710000000000001</v>
       </c>
       <c r="V36">
-        <v>64.628</v>
+        <v>-4.6619999999999999</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-39.276000000000003</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="Y36">
-        <v>11.286</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-33.686999999999998</v>
+        <v>7.0780000000000003</v>
       </c>
       <c r="AA36">
-        <v>88.923000000000002</v>
+        <v>-7.76</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>13.071</v>
+        <v>-7.6740000000000004</v>
       </c>
       <c r="D37">
-        <v>204.97399999999999</v>
+        <v>20.021999999999998</v>
       </c>
       <c r="E37">
-        <v>94.319000000000003</v>
+        <v>13.403</v>
       </c>
       <c r="F37">
-        <v>170.107</v>
+        <v>14.576000000000001</v>
       </c>
       <c r="G37">
-        <v>647.43200000000002</v>
+        <v>80.835999999999999</v>
       </c>
       <c r="H37">
-        <v>1124.348</v>
+        <v>132.98400000000001</v>
       </c>
       <c r="I37">
-        <v>31.736000000000001</v>
+        <v>5.2389999999999999</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3677,75 +3797,75 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>112.229</v>
+        <v>16.13</v>
       </c>
       <c r="O37">
-        <v>132.89099999999999</v>
+        <v>19.094000000000001</v>
       </c>
       <c r="P37">
-        <v>12.702999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>49.231000000000002</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>991.45699999999999</v>
+        <v>113.89</v>
       </c>
       <c r="U37">
-        <v>150.279</v>
+        <v>2.782</v>
       </c>
       <c r="V37">
-        <v>74.259</v>
+        <v>-2.5329999999999999</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-31.728999999999999</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="Y37">
-        <v>9.4390000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>20.283000000000001</v>
+        <v>2.867</v>
       </c>
       <c r="AA37">
-        <v>13.071</v>
+        <v>-7.6740000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>69.216999999999999</v>
+        <v>-4.5650000000000004</v>
       </c>
       <c r="D38">
-        <v>221.584</v>
+        <v>22.798999999999999</v>
       </c>
       <c r="E38">
-        <v>100.994</v>
+        <v>14.4</v>
       </c>
       <c r="F38">
-        <v>181.58799999999999</v>
+        <v>17.027000000000001</v>
       </c>
       <c r="G38">
-        <v>636.57600000000002</v>
+        <v>79.563000000000002</v>
       </c>
       <c r="H38">
-        <v>1196.6110000000001</v>
+        <v>130.23400000000001</v>
       </c>
       <c r="I38">
-        <v>31.565999999999999</v>
+        <v>4.8259999999999996</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3760,75 +3880,75 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>126.259</v>
+        <v>16.815000000000001</v>
       </c>
       <c r="O38">
-        <v>149.74799999999999</v>
+        <v>20.071999999999999</v>
       </c>
       <c r="P38">
-        <v>12.621</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>-32.308999999999997</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>1046.8630000000001</v>
+        <v>110.16200000000001</v>
       </c>
       <c r="U38">
-        <v>117.97</v>
+        <v>3.2360000000000002</v>
       </c>
       <c r="V38">
-        <v>89.44</v>
+        <v>-0.126</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-24.945</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="Y38">
-        <v>9.5060000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-88.552000000000007</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="AA38">
-        <v>69.216999999999999</v>
+        <v>-4.5650000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>31.797999999999998</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="D39">
-        <v>206.65799999999999</v>
+        <v>22.978999999999999</v>
       </c>
       <c r="E39">
-        <v>84.65</v>
+        <v>13.516</v>
       </c>
       <c r="F39">
-        <v>167.29</v>
+        <v>16.22</v>
       </c>
       <c r="G39">
-        <v>635.86300000000006</v>
+        <v>82.668000000000006</v>
       </c>
       <c r="H39">
-        <v>1216.462</v>
+        <v>129.57</v>
       </c>
       <c r="I39">
-        <v>32.774000000000001</v>
+        <v>3.7639999999999998</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3843,75 +3963,75 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>131.88499999999999</v>
+        <v>18.064</v>
       </c>
       <c r="O39">
-        <v>150.99600000000001</v>
+        <v>21.614000000000001</v>
       </c>
       <c r="P39">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>74.370999999999995</v>
+        <v>1.552</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>1536</v>
+        <v>365</v>
       </c>
       <c r="T39">
-        <v>1065.4659999999999</v>
+        <v>107.956</v>
       </c>
       <c r="U39">
-        <v>192.34100000000001</v>
+        <v>4.7880000000000003</v>
       </c>
       <c r="V39">
-        <v>86.593000000000004</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-21.765000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="Y39">
-        <v>8.5489999999999995</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>20.507000000000001</v>
+        <v>1.3879999999999999</v>
       </c>
       <c r="AA39">
-        <v>31.797999999999998</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>44.588000000000001</v>
+        <v>-5.98</v>
       </c>
       <c r="D40">
-        <v>164.85</v>
+        <v>22.001999999999999</v>
       </c>
       <c r="E40">
-        <v>82.084000000000003</v>
+        <v>12.571</v>
       </c>
       <c r="F40">
-        <v>128.86699999999999</v>
+        <v>16.718</v>
       </c>
       <c r="G40">
-        <v>619.68899999999996</v>
+        <v>76.221999999999994</v>
       </c>
       <c r="H40">
-        <v>1249.5119999999999</v>
+        <v>118.45099999999999</v>
       </c>
       <c r="I40">
-        <v>27.747</v>
+        <v>4.274</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3926,75 +4046,75 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>110.379</v>
+        <v>15.845000000000001</v>
       </c>
       <c r="O40">
-        <v>147.66399999999999</v>
+        <v>19.687999999999999</v>
       </c>
       <c r="P40">
-        <v>12.117000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>22.486000000000001</v>
+        <v>-0.84699999999999998</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>1101.848</v>
+        <v>98.763000000000005</v>
       </c>
       <c r="U40">
-        <v>214.827</v>
+        <v>3.9409999999999998</v>
       </c>
       <c r="V40">
-        <v>31.759</v>
+        <v>-2.6469999999999998</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-20.157</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Y40">
-        <v>8.3659999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>75.747</v>
+        <v>2.738</v>
       </c>
       <c r="AA40">
-        <v>44.588000000000001</v>
+        <v>-5.98</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>62.213000000000001</v>
+        <v>-3.2010000000000001</v>
       </c>
       <c r="D41">
-        <v>209.76400000000001</v>
+        <v>23.376000000000001</v>
       </c>
       <c r="E41">
-        <v>80.909000000000006</v>
+        <v>14.986000000000001</v>
       </c>
       <c r="F41">
-        <v>171.02799999999999</v>
+        <v>17.968</v>
       </c>
       <c r="G41">
-        <v>716.62099999999998</v>
+        <v>77.361999999999995</v>
       </c>
       <c r="H41">
-        <v>1327.9739999999999</v>
+        <v>123.431</v>
       </c>
       <c r="I41">
-        <v>21.734000000000002</v>
+        <v>3.706</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>105.21299999999999</v>
+        <v>17.172999999999998</v>
       </c>
       <c r="O41">
-        <v>145.565</v>
+        <v>21.236000000000001</v>
       </c>
       <c r="P41">
-        <v>11.49</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>-12.586</v>
+        <v>0.21</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1182.4090000000001</v>
+        <v>102.19499999999999</v>
       </c>
       <c r="U41">
-        <v>202.24100000000001</v>
+        <v>4.1509999999999998</v>
       </c>
       <c r="V41">
-        <v>77.209000000000003</v>
+        <v>-1.788</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>5.4459999999999997</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="Y41">
-        <v>7.8070000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-85.325999999999993</v>
+        <v>1.216</v>
       </c>
       <c r="AA41">
-        <v>62.213000000000001</v>
+        <v>-3.2010000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-0.80200000000000005</v>
+      </c>
+      <c r="D42">
+        <v>27.244</v>
+      </c>
+      <c r="E42">
+        <v>12.872</v>
+      </c>
+      <c r="F42">
+        <v>21.806999999999999</v>
+      </c>
+      <c r="G42">
+        <v>79.804000000000002</v>
+      </c>
+      <c r="H42">
+        <v>124.36199999999999</v>
+      </c>
+      <c r="I42">
+        <v>3.556</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="O42">
+        <v>23.183</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>101.179</v>
+      </c>
+      <c r="U42">
+        <v>4.1929999999999996</v>
+      </c>
+      <c r="V42">
+        <v>5.8630000000000004</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-5.0010000000000003</v>
+      </c>
+      <c r="AA42">
+        <v>-0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-1.772</v>
+      </c>
+      <c r="D43">
+        <v>28.529</v>
+      </c>
+      <c r="E43">
+        <v>15.375999999999999</v>
+      </c>
+      <c r="F43">
+        <v>21.739000000000001</v>
+      </c>
+      <c r="G43">
+        <v>84.736999999999995</v>
+      </c>
+      <c r="H43">
+        <v>131.58799999999999</v>
+      </c>
+      <c r="I43">
+        <v>6.2830000000000004</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>22.343</v>
+      </c>
+      <c r="O43">
+        <v>26.844999999999999</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>374</v>
+      </c>
+      <c r="T43">
+        <v>104.74299999999999</v>
+      </c>
+      <c r="U43">
+        <v>5.8310000000000004</v>
+      </c>
+      <c r="V43">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0.499</v>
+      </c>
+      <c r="AA43">
+        <v>-1.772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-4.5940000000000003</v>
+      </c>
+      <c r="D44">
+        <v>27.355</v>
+      </c>
+      <c r="E44">
+        <v>14.541</v>
+      </c>
+      <c r="F44">
+        <v>21.463999999999999</v>
+      </c>
+      <c r="G44">
+        <v>83.891999999999996</v>
+      </c>
+      <c r="H44">
+        <v>131.137</v>
+      </c>
+      <c r="I44">
+        <v>4.9640000000000004</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>15.379</v>
+      </c>
+      <c r="O44">
+        <v>19.954000000000001</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-1.68</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>111.18300000000001</v>
+      </c>
+      <c r="U44">
+        <v>4.1509999999999998</v>
+      </c>
+      <c r="V44">
+        <v>-8.5559999999999992</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>7.6289999999999996</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-0.501</v>
+      </c>
+      <c r="AA44">
+        <v>-4.5940000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="D45">
+        <v>29.478000000000002</v>
+      </c>
+      <c r="E45">
+        <v>15.49</v>
+      </c>
+      <c r="F45">
+        <v>23.927</v>
+      </c>
+      <c r="G45">
+        <v>86.927999999999997</v>
+      </c>
+      <c r="H45">
+        <v>131.61000000000001</v>
+      </c>
+      <c r="I45">
+        <v>4.4569999999999999</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>15.433999999999999</v>
+      </c>
+      <c r="O45">
+        <v>20.210999999999999</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>111.399</v>
+      </c>
+      <c r="U45">
+        <v>5.3380000000000001</v>
+      </c>
+      <c r="V45">
+        <v>2.266</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-0.5</v>
+      </c>
+      <c r="AA45">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>2.9209999999999998</v>
+      </c>
+      <c r="D46">
+        <v>32.198</v>
+      </c>
+      <c r="E46">
+        <v>17.303000000000001</v>
+      </c>
+      <c r="F46">
+        <v>25.919</v>
+      </c>
+      <c r="G46">
+        <v>97.981999999999999</v>
+      </c>
+      <c r="H46">
+        <v>140.626</v>
+      </c>
+      <c r="I46">
+        <v>5.2060000000000004</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>17.86</v>
+      </c>
+      <c r="O46">
+        <v>22.847999999999999</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>-0.246</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>117.77800000000001</v>
+      </c>
+      <c r="U46">
+        <v>5.0919999999999996</v>
+      </c>
+      <c r="V46">
+        <v>4.931</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-7.984</v>
+      </c>
+      <c r="AA46">
+        <v>2.9209999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="D47">
+        <v>37.344000000000001</v>
+      </c>
+      <c r="E47">
+        <v>20.457999999999998</v>
+      </c>
+      <c r="F47">
+        <v>30.558</v>
+      </c>
+      <c r="G47">
+        <v>110.539</v>
+      </c>
+      <c r="H47">
+        <v>153.911</v>
+      </c>
+      <c r="I47">
+        <v>6.91</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>22.414999999999999</v>
+      </c>
+      <c r="O47">
+        <v>27.614000000000001</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>397</v>
+      </c>
+      <c r="T47">
+        <v>126.297</v>
+      </c>
+      <c r="U47">
+        <v>5.99</v>
+      </c>
+      <c r="V47">
+        <v>4.9930000000000003</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-6.75</v>
+      </c>
+      <c r="AA47">
+        <v>2.5670000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="D48">
+        <v>38.783000000000001</v>
+      </c>
+      <c r="E48">
+        <v>18.343</v>
+      </c>
+      <c r="F48">
+        <v>31.337</v>
+      </c>
+      <c r="G48">
+        <v>113.791</v>
+      </c>
+      <c r="H48">
+        <v>154.90199999999999</v>
+      </c>
+      <c r="I48">
+        <v>6.2939999999999996</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>19.114999999999998</v>
+      </c>
+      <c r="O48">
+        <v>24.382000000000001</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-2.0009999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>130.52000000000001</v>
+      </c>
+      <c r="U48">
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="V48">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0.99</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-6</v>
+      </c>
+      <c r="AA48">
+        <v>3.1190000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>5.4690000000000003</v>
+      </c>
+      <c r="D49">
+        <v>37.417000000000002</v>
+      </c>
+      <c r="E49">
+        <v>18.800999999999998</v>
+      </c>
+      <c r="F49">
+        <v>30.222999999999999</v>
+      </c>
+      <c r="G49">
+        <v>124.03400000000001</v>
+      </c>
+      <c r="H49">
+        <v>165.846</v>
+      </c>
+      <c r="I49">
+        <v>5.2110000000000003</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>19.702999999999999</v>
+      </c>
+      <c r="O49">
+        <v>25.173999999999999</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>140.672</v>
+      </c>
+      <c r="U49">
+        <v>4.4969999999999999</v>
+      </c>
+      <c r="V49">
+        <v>6.8140000000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-7.25</v>
+      </c>
+      <c r="AA49">
+        <v>5.4690000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>2.6840000000000002</v>
+      </c>
+      <c r="D50">
+        <v>38.25</v>
+      </c>
+      <c r="E50">
+        <v>19.914999999999999</v>
+      </c>
+      <c r="F50">
+        <v>30.12</v>
+      </c>
+      <c r="G50">
+        <v>122.002</v>
+      </c>
+      <c r="H50">
+        <v>165.00899999999999</v>
+      </c>
+      <c r="I50">
+        <v>6.306</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>23.289000000000001</v>
+      </c>
+      <c r="O50">
+        <v>28.963999999999999</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>6.26</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>136.04499999999999</v>
+      </c>
+      <c r="U50">
+        <v>10.757</v>
+      </c>
+      <c r="V50">
+        <v>7.7089999999999996</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-10.407999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>9.4979999999999993</v>
+      </c>
+      <c r="AA50">
+        <v>2.6840000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>3.742</v>
+      </c>
+      <c r="D51">
+        <v>43.673999999999999</v>
+      </c>
+      <c r="E51">
+        <v>22.946000000000002</v>
+      </c>
+      <c r="F51">
+        <v>34.847999999999999</v>
+      </c>
+      <c r="G51">
+        <v>116.605</v>
+      </c>
+      <c r="H51">
+        <v>169.999</v>
+      </c>
+      <c r="I51">
+        <v>7.6959999999999997</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>27.056000000000001</v>
+      </c>
+      <c r="O51">
+        <v>32.918999999999997</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>-1.306</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>467</v>
+      </c>
+      <c r="T51">
+        <v>137.08000000000001</v>
+      </c>
+      <c r="U51">
+        <v>9.4510000000000005</v>
+      </c>
+      <c r="V51">
+        <v>7.5579999999999998</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-3.9279999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-3.677</v>
+      </c>
+      <c r="AA51">
+        <v>3.742</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-1.7230000000000001</v>
+      </c>
+      <c r="D52">
+        <v>42.67</v>
+      </c>
+      <c r="E52">
+        <v>20.983000000000001</v>
+      </c>
+      <c r="F52">
+        <v>33.947000000000003</v>
+      </c>
+      <c r="G52">
+        <v>106.685</v>
+      </c>
+      <c r="H52">
+        <v>170.46299999999999</v>
+      </c>
+      <c r="I52">
+        <v>6.27</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>23.091999999999999</v>
+      </c>
+      <c r="O52">
+        <v>29.158000000000001</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>141.30500000000001</v>
+      </c>
+      <c r="U52">
+        <v>11.727</v>
+      </c>
+      <c r="V52">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1.599</v>
+      </c>
+      <c r="AA52">
+        <v>-1.7230000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="D53">
+        <v>44.344999999999999</v>
+      </c>
+      <c r="E53">
+        <v>21.119</v>
+      </c>
+      <c r="F53">
+        <v>35.317999999999998</v>
+      </c>
+      <c r="G53">
+        <v>110.614</v>
+      </c>
+      <c r="H53">
+        <v>181.01900000000001</v>
+      </c>
+      <c r="I53">
+        <v>6.1820000000000004</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>24.045999999999999</v>
+      </c>
+      <c r="O53">
+        <v>30.315000000000001</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>-1.607</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>150.70400000000001</v>
+      </c>
+      <c r="U53">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="V53">
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>3.6989999999999998</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-10.448</v>
+      </c>
+      <c r="AA53">
+        <v>1.0589999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>4.3929999999999998</v>
+      </c>
+      <c r="D54">
+        <v>46.195</v>
+      </c>
+      <c r="E54">
+        <v>22.957999999999998</v>
+      </c>
+      <c r="F54">
+        <v>36.737000000000002</v>
+      </c>
+      <c r="G54">
+        <v>119.729</v>
+      </c>
+      <c r="H54">
+        <v>193.36500000000001</v>
+      </c>
+      <c r="I54">
+        <v>6.0659999999999998</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>26.434999999999999</v>
+      </c>
+      <c r="O54">
+        <v>32.908000000000001</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>12.512</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>160.45699999999999</v>
+      </c>
+      <c r="U54">
+        <v>22.632000000000001</v>
+      </c>
+      <c r="V54">
+        <v>8.4489999999999998</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>4.3929999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>3.6219999999999999</v>
+      </c>
+      <c r="D55">
+        <v>47.732999999999997</v>
+      </c>
+      <c r="E55">
+        <v>24.356999999999999</v>
+      </c>
+      <c r="F55">
+        <v>40.319000000000003</v>
+      </c>
+      <c r="G55">
+        <v>117.96599999999999</v>
+      </c>
+      <c r="H55">
+        <v>205.40700000000001</v>
+      </c>
+      <c r="I55">
+        <v>7.7460000000000004</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>30.411000000000001</v>
+      </c>
+      <c r="O55">
+        <v>37.054000000000002</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>-1.716</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>511</v>
+      </c>
+      <c r="T55">
+        <v>168.35300000000001</v>
+      </c>
+      <c r="U55">
+        <v>20.916</v>
+      </c>
+      <c r="V55">
+        <v>9.8949999999999996</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-12.695</v>
+      </c>
+      <c r="AA55">
+        <v>3.6219999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>-1.7090000000000001</v>
+      </c>
+      <c r="D56">
+        <v>48.811</v>
+      </c>
+      <c r="E56">
+        <v>22.763000000000002</v>
+      </c>
+      <c r="F56">
+        <v>39.122</v>
+      </c>
+      <c r="G56">
+        <v>127.215</v>
+      </c>
+      <c r="H56">
+        <v>206.18600000000001</v>
+      </c>
+      <c r="I56">
+        <v>6.7590000000000003</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>28.974</v>
+      </c>
+      <c r="O56">
+        <v>35.835999999999999</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>13.824</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>170.35</v>
+      </c>
+      <c r="U56">
+        <v>34.74</v>
+      </c>
+      <c r="V56">
+        <v>3.19</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-0.193</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>11.206</v>
+      </c>
+      <c r="AA56">
+        <v>-1.7090000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>3.839</v>
+      </c>
+      <c r="D57">
+        <v>51.938000000000002</v>
+      </c>
+      <c r="E57">
+        <v>23.071999999999999</v>
+      </c>
+      <c r="F57">
+        <v>42.326000000000001</v>
+      </c>
+      <c r="G57">
+        <v>135.291</v>
+      </c>
+      <c r="H57">
+        <v>215.54400000000001</v>
+      </c>
+      <c r="I57">
+        <v>7.6159999999999997</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>27.134</v>
+      </c>
+      <c r="O57">
+        <v>40.006</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>-17.257000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>175.53800000000001</v>
+      </c>
+      <c r="U57">
+        <v>17.483000000000001</v>
+      </c>
+      <c r="V57">
+        <v>6.7119999999999997</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>2.137</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-8.9860000000000007</v>
+      </c>
+      <c r="AA57">
+        <v>3.839</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>12.683999999999999</v>
+      </c>
+      <c r="D58">
+        <v>62.005000000000003</v>
+      </c>
+      <c r="E58">
+        <v>28.373000000000001</v>
+      </c>
+      <c r="F58">
+        <v>52.167000000000002</v>
+      </c>
+      <c r="G58">
+        <v>160.572</v>
+      </c>
+      <c r="H58">
+        <v>240.773</v>
+      </c>
+      <c r="I58">
+        <v>8.2490000000000006</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>31.405000000000001</v>
+      </c>
+      <c r="O58">
+        <v>45.055</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>195.71799999999999</v>
+      </c>
+      <c r="U58">
+        <v>19.478000000000002</v>
+      </c>
+      <c r="V58">
+        <v>15.125</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>6.0640000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-17.991</v>
+      </c>
+      <c r="AA58">
+        <v>12.683999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>98.873999999999995</v>
+      </c>
+      <c r="D59">
+        <v>67.557000000000002</v>
+      </c>
+      <c r="E59">
+        <v>31.827999999999999</v>
+      </c>
+      <c r="F59">
+        <v>56.750999999999998</v>
+      </c>
+      <c r="G59">
+        <v>185.03899999999999</v>
+      </c>
+      <c r="H59">
+        <v>338.36700000000002</v>
+      </c>
+      <c r="I59">
+        <v>10.388999999999999</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>39.319000000000003</v>
+      </c>
+      <c r="O59">
+        <v>46.807000000000002</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>2.923</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>589</v>
+      </c>
+      <c r="T59">
+        <v>291.56</v>
+      </c>
+      <c r="U59">
+        <v>22.401</v>
+      </c>
+      <c r="V59">
+        <v>18.263000000000002</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-13.207000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>98.873999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>8.859</v>
+      </c>
+      <c r="D60">
+        <v>73.432000000000002</v>
+      </c>
+      <c r="E60">
+        <v>34.372</v>
+      </c>
+      <c r="F60">
+        <v>62.564</v>
+      </c>
+      <c r="G60">
+        <v>244.11199999999999</v>
+      </c>
+      <c r="H60">
+        <v>352.00599999999997</v>
+      </c>
+      <c r="I60">
+        <v>8.6170000000000009</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>36.283000000000001</v>
+      </c>
+      <c r="O60">
+        <v>43.954999999999998</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>18.03</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>308.05099999999999</v>
+      </c>
+      <c r="U60">
+        <v>40.430999999999997</v>
+      </c>
+      <c r="V60">
+        <v>10.914</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>1.21</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>7.6020000000000003</v>
+      </c>
+      <c r="AA60">
+        <v>8.859</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>7.7350000000000003</v>
+      </c>
+      <c r="D61">
+        <v>76.358999999999995</v>
+      </c>
+      <c r="E61">
+        <v>37.119</v>
+      </c>
+      <c r="F61">
+        <v>64.215000000000003</v>
+      </c>
+      <c r="G61">
+        <v>265.404</v>
+      </c>
+      <c r="H61">
+        <v>373.40600000000001</v>
+      </c>
+      <c r="I61">
+        <v>8.7880000000000003</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>34.451999999999998</v>
+      </c>
+      <c r="O61">
+        <v>42.31</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>13.99</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>331.096</v>
+      </c>
+      <c r="U61">
+        <v>54.420999999999999</v>
+      </c>
+      <c r="V61">
+        <v>17.942</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-5.9009999999999998</v>
+      </c>
+      <c r="AA61">
+        <v>7.7350000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>10.555</v>
+      </c>
+      <c r="D62">
+        <v>85.795000000000002</v>
+      </c>
+      <c r="E62">
+        <v>36.841999999999999</v>
+      </c>
+      <c r="F62">
+        <v>73.051000000000002</v>
+      </c>
+      <c r="G62">
+        <v>281.745</v>
+      </c>
+      <c r="H62">
+        <v>391.62599999999998</v>
+      </c>
+      <c r="I62">
+        <v>8.8360000000000003</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>37.67</v>
+      </c>
+      <c r="O62">
+        <v>46.097000000000001</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>-1.1950000000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>345.529</v>
+      </c>
+      <c r="U62">
+        <v>53.225999999999999</v>
+      </c>
+      <c r="V62">
+        <v>25.382000000000001</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-21.850999999999999</v>
+      </c>
+      <c r="AA62">
+        <v>10.555</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>10.997999999999999</v>
+      </c>
+      <c r="D63">
+        <v>93.956999999999994</v>
+      </c>
+      <c r="E63">
+        <v>42.820999999999998</v>
+      </c>
+      <c r="F63">
+        <v>79.293999999999997</v>
+      </c>
+      <c r="G63">
+        <v>288.392</v>
+      </c>
+      <c r="H63">
+        <v>423.93099999999998</v>
+      </c>
+      <c r="I63">
+        <v>9.3810000000000002</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>46.540999999999997</v>
+      </c>
+      <c r="O63">
+        <v>55.155999999999999</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>-4.9950000000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>747</v>
+      </c>
+      <c r="T63">
+        <v>368.77499999999998</v>
+      </c>
+      <c r="U63">
+        <v>48.231000000000002</v>
+      </c>
+      <c r="V63">
+        <v>22.556999999999999</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-21.936</v>
+      </c>
+      <c r="AA63">
+        <v>10.997999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>12.91</v>
+      </c>
+      <c r="D64">
+        <v>102.995</v>
+      </c>
+      <c r="E64">
+        <v>41.28</v>
+      </c>
+      <c r="F64">
+        <v>87.924999999999997</v>
+      </c>
+      <c r="G64">
+        <v>300.28800000000001</v>
+      </c>
+      <c r="H64">
+        <v>429.31200000000001</v>
+      </c>
+      <c r="I64">
+        <v>8.3719999999999999</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>43.219000000000001</v>
+      </c>
+      <c r="O64">
+        <v>51.984999999999999</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>-9.9570000000000007</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>377.327</v>
+      </c>
+      <c r="U64">
+        <v>38.274000000000001</v>
+      </c>
+      <c r="V64">
+        <v>26.38</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-11.222</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-20.228000000000002</v>
+      </c>
+      <c r="AA64">
+        <v>12.91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>8.875</v>
+      </c>
+      <c r="D65">
+        <v>102.955</v>
+      </c>
+      <c r="E65">
+        <v>46.606999999999999</v>
+      </c>
+      <c r="F65">
+        <v>85.646000000000001</v>
+      </c>
+      <c r="G65">
+        <v>319.87</v>
+      </c>
+      <c r="H65">
+        <v>474.89800000000002</v>
+      </c>
+      <c r="I65">
+        <v>14.066000000000001</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>51.921999999999997</v>
+      </c>
+      <c r="O65">
+        <v>76.456999999999994</v>
+      </c>
+      <c r="P65">
+        <v>16.701000000000001</v>
+      </c>
+      <c r="Q65">
+        <v>16.434999999999999</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>398.44099999999997</v>
+      </c>
+      <c r="U65">
+        <v>54.709000000000003</v>
+      </c>
+      <c r="V65">
+        <v>17.356000000000002</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="Y65">
+        <v>15.961</v>
+      </c>
+      <c r="Z65">
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="AA65">
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>15.432</v>
+      </c>
+      <c r="D66">
+        <v>114.67400000000001</v>
+      </c>
+      <c r="E66">
+        <v>50.177999999999997</v>
+      </c>
+      <c r="F66">
+        <v>95.686999999999998</v>
+      </c>
+      <c r="G66">
+        <v>333.41899999999998</v>
+      </c>
+      <c r="H66">
+        <v>500.964</v>
+      </c>
+      <c r="I66">
+        <v>14.558</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>58.871000000000002</v>
+      </c>
+      <c r="O66">
+        <v>83.584000000000003</v>
+      </c>
+      <c r="P66">
+        <v>16.52</v>
+      </c>
+      <c r="Q66">
+        <v>6.36</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>417.38</v>
+      </c>
+      <c r="U66">
+        <v>61.069000000000003</v>
+      </c>
+      <c r="V66">
+        <v>34.125</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="Y66">
+        <v>15.75</v>
+      </c>
+      <c r="Z66">
+        <v>-15.52</v>
+      </c>
+      <c r="AA66">
+        <v>15.432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>14.898999999999999</v>
+      </c>
+      <c r="D67">
+        <v>124.68</v>
+      </c>
+      <c r="E67">
+        <v>54.055</v>
+      </c>
+      <c r="F67">
+        <v>105.419</v>
+      </c>
+      <c r="G67">
+        <v>326.95800000000003</v>
+      </c>
+      <c r="H67">
+        <v>550.41399999999999</v>
+      </c>
+      <c r="I67">
+        <v>20.62</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>69.617000000000004</v>
+      </c>
+      <c r="O67">
+        <v>98.343000000000004</v>
+      </c>
+      <c r="P67">
+        <v>16.338000000000001</v>
+      </c>
+      <c r="Q67">
+        <v>-22.029</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>908</v>
+      </c>
+      <c r="T67">
+        <v>452.07100000000003</v>
+      </c>
+      <c r="U67">
+        <v>39.04</v>
+      </c>
+      <c r="V67">
+        <v>37.255000000000003</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>10.4</v>
+      </c>
+      <c r="Y67">
+        <v>15.539</v>
+      </c>
+      <c r="Z67">
+        <v>-42.847999999999999</v>
+      </c>
+      <c r="AA67">
+        <v>14.898999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>37.374000000000002</v>
+      </c>
+      <c r="D68">
+        <v>132.46799999999999</v>
+      </c>
+      <c r="E68">
+        <v>53.557000000000002</v>
+      </c>
+      <c r="F68">
+        <v>110.60599999999999</v>
+      </c>
+      <c r="G68">
+        <v>350.91500000000002</v>
+      </c>
+      <c r="H68">
+        <v>652.21699999999998</v>
+      </c>
+      <c r="I68">
+        <v>12.784000000000001</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-0.184</v>
+      </c>
+      <c r="N68">
+        <v>59.005000000000003</v>
+      </c>
+      <c r="O68">
+        <v>85.173000000000002</v>
+      </c>
+      <c r="P68">
+        <v>16.154</v>
+      </c>
+      <c r="Q68">
+        <v>4.93</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>567.04399999999998</v>
+      </c>
+      <c r="U68">
+        <v>43.97</v>
+      </c>
+      <c r="V68">
+        <v>36.293999999999997</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-14.433999999999999</v>
+      </c>
+      <c r="Y68">
+        <v>15.324999999999999</v>
+      </c>
+      <c r="Z68">
+        <v>-7.4039999999999999</v>
+      </c>
+      <c r="AA68">
+        <v>37.374000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>24.503</v>
+      </c>
+      <c r="D69">
+        <v>132.82300000000001</v>
+      </c>
+      <c r="E69">
+        <v>57.326999999999998</v>
+      </c>
+      <c r="F69">
+        <v>111.196</v>
+      </c>
+      <c r="G69">
+        <v>370.17</v>
+      </c>
+      <c r="H69">
+        <v>694.65300000000002</v>
+      </c>
+      <c r="I69">
+        <v>16.667000000000002</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>63.357999999999997</v>
+      </c>
+      <c r="O69">
+        <v>89.766999999999996</v>
+      </c>
+      <c r="P69">
+        <v>15.961</v>
+      </c>
+      <c r="Q69">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>604.88599999999997</v>
+      </c>
+      <c r="U69">
+        <v>44.536000000000001</v>
+      </c>
+      <c r="V69">
+        <v>43.156999999999996</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Y69">
+        <v>15.11</v>
+      </c>
+      <c r="Z69">
+        <v>-29.114000000000001</v>
+      </c>
+      <c r="AA69">
+        <v>24.503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>13.446</v>
+      </c>
+      <c r="D70">
+        <v>154.02199999999999</v>
+      </c>
+      <c r="E70">
+        <v>64.861999999999995</v>
+      </c>
+      <c r="F70">
+        <v>129.02799999999999</v>
+      </c>
+      <c r="G70">
+        <v>422.19799999999998</v>
+      </c>
+      <c r="H70">
+        <v>719.60199999999998</v>
+      </c>
+      <c r="I70">
+        <v>21.991</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>75.352999999999994</v>
+      </c>
+      <c r="O70">
+        <v>87.12</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>5.9660000000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>632.48199999999997</v>
+      </c>
+      <c r="U70">
+        <v>50.502000000000002</v>
+      </c>
+      <c r="V70">
+        <v>56.695999999999998</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-25.221</v>
+      </c>
+      <c r="AA70">
+        <v>13.446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>36.847000000000001</v>
+      </c>
+      <c r="D71">
+        <v>174.43600000000001</v>
+      </c>
+      <c r="E71">
+        <v>70.010000000000005</v>
+      </c>
+      <c r="F71">
+        <v>144.33799999999999</v>
+      </c>
+      <c r="G71">
+        <v>494.27100000000002</v>
+      </c>
+      <c r="H71">
+        <v>786.375</v>
+      </c>
+      <c r="I71">
+        <v>23.565000000000001</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>84.682000000000002</v>
+      </c>
+      <c r="O71">
+        <v>96.850999999999999</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>-7.5270000000000001</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>1143</v>
+      </c>
+      <c r="T71">
+        <v>689.524</v>
+      </c>
+      <c r="U71">
+        <v>42.975000000000001</v>
+      </c>
+      <c r="V71">
+        <v>56.399000000000001</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>2.5510000000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-63.16</v>
+      </c>
+      <c r="AA71">
+        <v>36.847000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>90.066000000000003</v>
+      </c>
+      <c r="D72">
+        <v>180.01</v>
+      </c>
+      <c r="E72">
+        <v>67.510999999999996</v>
+      </c>
+      <c r="F72">
+        <v>149.16</v>
+      </c>
+      <c r="G72">
+        <v>497.29700000000003</v>
+      </c>
+      <c r="H72">
+        <v>812.03899999999999</v>
+      </c>
+      <c r="I72">
+        <v>25.672999999999998</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>76.677999999999997</v>
+      </c>
+      <c r="O72">
+        <v>88.68</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>18.312999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>723.35900000000004</v>
+      </c>
+      <c r="U72">
+        <v>61.287999999999997</v>
+      </c>
+      <c r="V72">
+        <v>46.631</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-61.8</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>49.914000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>90.066000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>50.127000000000002</v>
+      </c>
+      <c r="D73">
+        <v>181.77799999999999</v>
+      </c>
+      <c r="E73">
+        <v>74.200999999999993</v>
+      </c>
+      <c r="F73">
+        <v>151.93199999999999</v>
+      </c>
+      <c r="G73">
+        <v>561.59900000000005</v>
+      </c>
+      <c r="H73">
+        <v>887.16499999999996</v>
+      </c>
+      <c r="I73">
+        <v>21.884</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>81.978999999999999</v>
+      </c>
+      <c r="O73">
+        <v>94.210999999999999</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>15.093999999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>792.95399999999995</v>
+      </c>
+      <c r="U73">
+        <v>76.382000000000005</v>
+      </c>
+      <c r="V73">
+        <v>60.56</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>4.1219999999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-37.451999999999998</v>
+      </c>
+      <c r="AA73">
+        <v>50.127000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>44.863</v>
+      </c>
+      <c r="D74">
+        <v>200.56299999999999</v>
+      </c>
+      <c r="E74">
+        <v>88.215000000000003</v>
+      </c>
+      <c r="F74">
+        <v>166.54</v>
+      </c>
+      <c r="G74">
+        <v>628.72799999999995</v>
+      </c>
+      <c r="H74">
+        <v>957.11599999999999</v>
+      </c>
+      <c r="I74">
+        <v>26.178999999999998</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>92.98</v>
+      </c>
+      <c r="O74">
+        <v>105.586</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>7.7990000000000004</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>851.53</v>
+      </c>
+      <c r="U74">
+        <v>84.180999999999997</v>
+      </c>
+      <c r="V74">
+        <v>74.614999999999995</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-57.694000000000003</v>
+      </c>
+      <c r="AA74">
+        <v>44.862000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>73.959999999999994</v>
+      </c>
+      <c r="D75">
+        <v>207.08099999999999</v>
+      </c>
+      <c r="E75">
+        <v>90.808999999999997</v>
+      </c>
+      <c r="F75">
+        <v>172.232</v>
+      </c>
+      <c r="G75">
+        <v>677.197</v>
+      </c>
+      <c r="H75">
+        <v>1054.346</v>
+      </c>
+      <c r="I75">
+        <v>32.185000000000002</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>105.998</v>
+      </c>
+      <c r="O75">
+        <v>117.456</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>1371</v>
+      </c>
+      <c r="T75">
+        <v>936.89</v>
+      </c>
+      <c r="U75">
+        <v>121.021</v>
+      </c>
+      <c r="V75">
+        <v>70.391000000000005</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>3.0190000000000001</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-27.219000000000001</v>
+      </c>
+      <c r="AA75">
+        <v>73.959999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>88.923000000000002</v>
+      </c>
+      <c r="D76">
+        <v>207.666</v>
+      </c>
+      <c r="E76">
+        <v>86.206000000000003</v>
+      </c>
+      <c r="F76">
+        <v>170.59299999999999</v>
+      </c>
+      <c r="G76">
+        <v>677.36500000000001</v>
+      </c>
+      <c r="H76">
+        <v>1125.06</v>
+      </c>
+      <c r="I76">
+        <v>29.687999999999999</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>100.20099999999999</v>
+      </c>
+      <c r="O76">
+        <v>122.467</v>
+      </c>
+      <c r="P76">
+        <v>13.664999999999999</v>
+      </c>
+      <c r="Q76">
+        <v>-19.972999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1002.593</v>
+      </c>
+      <c r="U76">
+        <v>101.048</v>
+      </c>
+      <c r="V76">
+        <v>64.628</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-39.276000000000003</v>
+      </c>
+      <c r="Y76">
+        <v>11.286</v>
+      </c>
+      <c r="Z76">
+        <v>-33.686999999999998</v>
+      </c>
+      <c r="AA76">
+        <v>88.923000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>13.071</v>
+      </c>
+      <c r="D77">
+        <v>204.97399999999999</v>
+      </c>
+      <c r="E77">
+        <v>94.319000000000003</v>
+      </c>
+      <c r="F77">
+        <v>170.107</v>
+      </c>
+      <c r="G77">
+        <v>647.43200000000002</v>
+      </c>
+      <c r="H77">
+        <v>1124.348</v>
+      </c>
+      <c r="I77">
+        <v>31.736000000000001</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>112.229</v>
+      </c>
+      <c r="O77">
+        <v>132.89099999999999</v>
+      </c>
+      <c r="P77">
+        <v>12.702999999999999</v>
+      </c>
+      <c r="Q77">
+        <v>49.231000000000002</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>991.45699999999999</v>
+      </c>
+      <c r="U77">
+        <v>150.279</v>
+      </c>
+      <c r="V77">
+        <v>74.259</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-31.728999999999999</v>
+      </c>
+      <c r="Y77">
+        <v>9.4390000000000001</v>
+      </c>
+      <c r="Z77">
+        <v>20.283000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>13.071</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>69.216999999999999</v>
+      </c>
+      <c r="D78">
+        <v>221.584</v>
+      </c>
+      <c r="E78">
+        <v>100.994</v>
+      </c>
+      <c r="F78">
+        <v>181.58799999999999</v>
+      </c>
+      <c r="G78">
+        <v>636.57600000000002</v>
+      </c>
+      <c r="H78">
+        <v>1196.6110000000001</v>
+      </c>
+      <c r="I78">
+        <v>31.565999999999999</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>126.259</v>
+      </c>
+      <c r="O78">
+        <v>149.74799999999999</v>
+      </c>
+      <c r="P78">
+        <v>12.621</v>
+      </c>
+      <c r="Q78">
+        <v>-32.308999999999997</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>1046.8630000000001</v>
+      </c>
+      <c r="U78">
+        <v>117.97</v>
+      </c>
+      <c r="V78">
+        <v>89.44</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-24.945</v>
+      </c>
+      <c r="Y78">
+        <v>9.5060000000000002</v>
+      </c>
+      <c r="Z78">
+        <v>-88.552000000000007</v>
+      </c>
+      <c r="AA78">
+        <v>69.216999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>31.797999999999998</v>
+      </c>
+      <c r="D79">
+        <v>206.65799999999999</v>
+      </c>
+      <c r="E79">
+        <v>84.65</v>
+      </c>
+      <c r="F79">
+        <v>167.29</v>
+      </c>
+      <c r="G79">
+        <v>635.86300000000006</v>
+      </c>
+      <c r="H79">
+        <v>1216.462</v>
+      </c>
+      <c r="I79">
+        <v>32.774000000000001</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>131.88499999999999</v>
+      </c>
+      <c r="O79">
+        <v>150.99600000000001</v>
+      </c>
+      <c r="P79">
+        <v>12.22</v>
+      </c>
+      <c r="Q79">
+        <v>74.370999999999995</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>1536</v>
+      </c>
+      <c r="T79">
+        <v>1065.4659999999999</v>
+      </c>
+      <c r="U79">
+        <v>192.34100000000001</v>
+      </c>
+      <c r="V79">
+        <v>86.593000000000004</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-21.765000000000001</v>
+      </c>
+      <c r="Y79">
+        <v>8.5489999999999995</v>
+      </c>
+      <c r="Z79">
+        <v>20.507000000000001</v>
+      </c>
+      <c r="AA79">
+        <v>31.797999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>44.588000000000001</v>
+      </c>
+      <c r="D80">
+        <v>164.85</v>
+      </c>
+      <c r="E80">
+        <v>82.084000000000003</v>
+      </c>
+      <c r="F80">
+        <v>128.86699999999999</v>
+      </c>
+      <c r="G80">
+        <v>619.68899999999996</v>
+      </c>
+      <c r="H80">
+        <v>1249.5119999999999</v>
+      </c>
+      <c r="I80">
+        <v>27.747</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>110.379</v>
+      </c>
+      <c r="O80">
+        <v>147.66399999999999</v>
+      </c>
+      <c r="P80">
+        <v>12.117000000000001</v>
+      </c>
+      <c r="Q80">
+        <v>22.486000000000001</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>1101.848</v>
+      </c>
+      <c r="U80">
+        <v>214.827</v>
+      </c>
+      <c r="V80">
+        <v>31.759</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-20.157</v>
+      </c>
+      <c r="Y80">
+        <v>8.3659999999999997</v>
+      </c>
+      <c r="Z80">
+        <v>75.747</v>
+      </c>
+      <c r="AA80">
+        <v>44.588000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>62.213000000000001</v>
+      </c>
+      <c r="D81">
+        <v>209.76400000000001</v>
+      </c>
+      <c r="E81">
+        <v>80.909000000000006</v>
+      </c>
+      <c r="F81">
+        <v>171.02799999999999</v>
+      </c>
+      <c r="G81">
+        <v>716.62099999999998</v>
+      </c>
+      <c r="H81">
+        <v>1327.9739999999999</v>
+      </c>
+      <c r="I81">
+        <v>21.734000000000002</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>105.21299999999999</v>
+      </c>
+      <c r="O81">
+        <v>145.565</v>
+      </c>
+      <c r="P81">
+        <v>11.49</v>
+      </c>
+      <c r="Q81">
+        <v>-12.586</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>1182.4090000000001</v>
+      </c>
+      <c r="U81">
+        <v>202.24100000000001</v>
+      </c>
+      <c r="V81">
+        <v>77.209000000000003</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>5.4459999999999997</v>
+      </c>
+      <c r="Y81">
+        <v>7.8070000000000004</v>
+      </c>
+      <c r="Z81">
+        <v>-85.325999999999993</v>
+      </c>
+      <c r="AA81">
+        <v>62.213000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>61.868000000000002</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>231.66300000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>92.99</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>190.553</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>693.69100000000003</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>1428.434</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>23.594000000000001</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>120.4</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>166.99299999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>10.87</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-21.222999999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>1261.441</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>181.018</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>79.135000000000005</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>1.2789999999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>7.61</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-98.064999999999998</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>61.868000000000002</v>
       </c>
     </row>
